--- a/private/daesol/locationInformation.xlsx
+++ b/private/daesol/locationInformation.xlsx
@@ -440,87 +440,87 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>25.87052097066153</v>
+        <v>26.30060515795258</v>
       </c>
       <c r="B3" t="n">
-        <v>73.19278931409009</v>
+        <v>50.63823643561592</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.724735946155298</v>
+        <v>49.86031055426232</v>
       </c>
       <c r="B4" t="n">
-        <v>38.9787218699974</v>
+        <v>53.51421700377151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>31.92737271985037</v>
+        <v>10.6345755410293</v>
       </c>
       <c r="B5" t="n">
-        <v>26.37809161990384</v>
+        <v>43.21767988064006</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.849848552189305</v>
+        <v>72.76746502083958</v>
       </c>
       <c r="B6" t="n">
-        <v>9.406716561086236</v>
+        <v>89.71329079549795</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>89.30441939509237</v>
+        <v>82.50376961820642</v>
       </c>
       <c r="B7" t="n">
-        <v>20.41068538859994</v>
+        <v>3.747284810167872</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>38.48408452939017</v>
+        <v>3.534757217649531</v>
       </c>
       <c r="B8" t="n">
-        <v>36.55369968317429</v>
+        <v>17.60770696233459</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>33.03755338118201</v>
+        <v>37.00817215104723</v>
       </c>
       <c r="B9" t="n">
-        <v>49.51746086990273</v>
+        <v>66.01359078796222</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>26.65391651479928</v>
+        <v>94.51263686363652</v>
       </c>
       <c r="B10" t="n">
-        <v>92.32043567923792</v>
+        <v>97.9910163048617</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>51.1902995113552</v>
+        <v>94.60579314886006</v>
       </c>
       <c r="B11" t="n">
-        <v>19.98855164451505</v>
+        <v>38.80688930454325</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>25.33208949993304</v>
+        <v>20.8881011094413</v>
       </c>
       <c r="B12" t="n">
-        <v>1.063779103256712</v>
+        <v>65.96072900675472</v>
       </c>
     </row>
   </sheetData>

--- a/private/daesol/locationInformation.xlsx
+++ b/private/daesol/locationInformation.xlsx
@@ -440,87 +440,87 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26.30060515795258</v>
+        <v>93.51557259469942</v>
       </c>
       <c r="B3" t="n">
-        <v>50.63823643561592</v>
+        <v>13.34461002250372</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>49.86031055426232</v>
+        <v>30.05080957207851</v>
       </c>
       <c r="B4" t="n">
-        <v>53.51421700377151</v>
+        <v>16.81638798554041</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10.6345755410293</v>
+        <v>73.66457885274841</v>
       </c>
       <c r="B5" t="n">
-        <v>43.21767988064006</v>
+        <v>42.19338516630307</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>72.76746502083958</v>
+        <v>84.07055657603765</v>
       </c>
       <c r="B6" t="n">
-        <v>89.71329079549795</v>
+        <v>29.19530964124114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>82.50376961820642</v>
+        <v>4.830865915247529</v>
       </c>
       <c r="B7" t="n">
-        <v>3.747284810167872</v>
+        <v>27.60742380696851</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.534757217649531</v>
+        <v>91.49292885820776</v>
       </c>
       <c r="B8" t="n">
-        <v>17.60770696233459</v>
+        <v>72.95293741884417</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>37.00817215104723</v>
+        <v>20.92679094654542</v>
       </c>
       <c r="B9" t="n">
-        <v>66.01359078796222</v>
+        <v>30.30673251370746</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>94.51263686363652</v>
+        <v>99.49928899033034</v>
       </c>
       <c r="B10" t="n">
-        <v>97.9910163048617</v>
+        <v>50.76750713471454</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>94.60579314886006</v>
+        <v>72.4656699111338</v>
       </c>
       <c r="B11" t="n">
-        <v>38.80688930454325</v>
+        <v>83.56485727918756</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20.8881011094413</v>
+        <v>93.19202244423936</v>
       </c>
       <c r="B12" t="n">
-        <v>65.96072900675472</v>
+        <v>32.45852774473307</v>
       </c>
     </row>
   </sheetData>
